--- a/CollectionWeb/WebContent/resources/templates/tramas_estados.xlsx
+++ b/CollectionWeb/WebContent/resources/templates/tramas_estados.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="7935" windowWidth="20115" windowHeight="7935" tabRatio="968" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="7935" windowWidth="20115" windowHeight="7935" tabRatio="968"/>
   </bookViews>
   <sheets>
-    <sheet name="T ESTADO" sheetId="7" r:id="rId1"/>
-    <sheet name="DES T ESTADO" sheetId="8" r:id="rId2"/>
+    <sheet name="TRAMA" sheetId="7" r:id="rId1"/>
+    <sheet name="DESCRIPCIÓN TRAMA" sheetId="8" r:id="rId2"/>
+    <sheet name="CÓDIGOS" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>CODIGO UNICO</t>
   </si>
@@ -28,12 +29,6 @@
     <t>BANCO</t>
   </si>
   <si>
-    <t>AD00000000001</t>
-  </si>
-  <si>
-    <t>AS00000000001</t>
-  </si>
-  <si>
     <t>ESTADO</t>
   </si>
   <si>
@@ -112,9 +107,6 @@
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
-    <t>Código único de la venta</t>
-  </si>
-  <si>
     <t>Fecha de creación del registro</t>
   </si>
   <si>
@@ -133,13 +125,25 @@
     <t>Debe tener formato "dd/mm/yyyy"</t>
   </si>
   <si>
-    <t>Solo acepta ACTIVO o BAJA</t>
-  </si>
-  <si>
     <t>FECHA ACTUALIZACIÓN</t>
   </si>
   <si>
     <t>USUARIO ACTUALIZACIÓN</t>
+  </si>
+  <si>
+    <t>Código de banco + Código de producto + Correlativo por producto</t>
+  </si>
+  <si>
+    <t>Revisar tabla Estado</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>2001000001</t>
+  </si>
+  <si>
+    <t>2001000002</t>
   </si>
 </sst>
 </file>
@@ -329,7 +333,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +516,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,7 +730,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -769,6 +779,10 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="%" xfId="2"/>
@@ -1143,13 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,89 +1180,89 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I1" t="str">
-        <f>CONCATENATE(A1,H1,B1,H1,TEXT(C1,"MM/YYYY"),H1,D1,H1,E1,H1,F1,H1,G1)</f>
+        <f>CONCATENATE(A1,H1,B1,H1,TEXT(C1,"MM/AAAA"),H1,D1,H1,E1,H1,F1,H1,G1)</f>
         <v>CODIGO UNICO|ESTADO|FECHA DE ESTADO|USUARIO BAJA|CANAL BAJA|MOTIVO|OBSERVACION DE BAJA</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1">
         <v>42005</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" t="str">
-        <f>CONCATENATE(A2,H2,B2,H2,TEXT(C2,"MM/YYYY"),H2,D2,H2,E2,H2,F2,H2,G2)</f>
-        <v>AD00000000001|BAJA|01/2015|CCASTILLO|COBRANZAS|MOROSIDAD|3 MESES SIN COBRO</v>
+        <f t="shared" ref="I2:I3" si="0">CONCATENATE(A2,H2,B2,H2,TEXT(C2,"MM/AAAA"),H2,D2,H2,E2,H2,F2,H2,G2)</f>
+        <v>2001000001|ACTIVO|01/2015|CCASTILLO|COBRANZAS|MOROSIDAD|3 MESES SIN COBRO</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>42006</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" t="str">
-        <f>CONCATENATE(A3,H3,B3,H3,TEXT(C3,"MM/YYYY"),H3,D3,H3,E3,H3,F3,H3,G3)</f>
-        <v>AS00000000001|BAJA|01/2015|BLINARES|BANCO|A SOLICITUD DEL CLIENTE|NO DESEA EL SERVICIO</v>
+        <f t="shared" si="0"/>
+        <v>2001000002|BAJA|01/2015|BLINARES|BANCO|A SOLICITUD DEL CLIENTE|NO DESEA EL SERVICIO</v>
       </c>
     </row>
   </sheetData>
@@ -1261,13 +1272,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,25 +1291,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1312,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="17">
         <v>10</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1332,17 +1340,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>6</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" s="12"/>
     </row>
@@ -1351,17 +1359,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="12"/>
     </row>
@@ -1370,17 +1378,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5">
         <v>15</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="12"/>
     </row>
@@ -1389,17 +1397,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="5">
         <v>15</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="12"/>
     </row>
@@ -1408,10 +1416,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5">
         <v>50</v>
@@ -1425,10 +1433,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="5">
         <v>120</v>
@@ -1442,14 +1450,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="19"/>
@@ -1459,14 +1467,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="19"/>
@@ -1474,4 +1482,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CollectionWeb/WebContent/resources/templates/tramas_estados.xlsx
+++ b/CollectionWeb/WebContent/resources/templates/tramas_estados.xlsx
@@ -131,9 +131,6 @@
     <t>USUARIO ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>Código de banco + Código de producto + Correlativo por producto</t>
-  </si>
-  <si>
     <t>Revisar tabla Estado</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>2001000002</t>
+  </si>
+  <si>
+    <t>Código único de la venta</t>
   </si>
 </sst>
 </file>
@@ -333,7 +333,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,6 +522,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,7 +736,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -783,6 +789,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="%" xfId="2"/>
@@ -1176,41 +1183,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="24" t="s">
         <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
       </c>
       <c r="I1" t="str">
-        <f>CONCATENATE(A1,H1,B1,H1,TEXT(C1,"MM/AAAA"),H1,D1,H1,E1,H1,F1,H1,G1)</f>
+        <f>CONCATENATE(A1,H1,B1,H1,TEXT(C1,"DD/MM/AAAA"),H1,D1,H1,E1,H1,F1,H1,G1)</f>
         <v>CODIGO UNICO|ESTADO|FECHA DE ESTADO|USUARIO BAJA|CANAL BAJA|MOTIVO|OBSERVACION DE BAJA</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
         <v>42005</v>
@@ -1231,13 +1238,13 @@
         <v>17</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I3" si="0">CONCATENATE(A2,H2,B2,H2,TEXT(C2,"MM/AAAA"),H2,D2,H2,E2,H2,F2,H2,G2)</f>
-        <v>2001000001|ACTIVO|01/2015|CCASTILLO|COBRANZAS|MOROSIDAD|3 MESES SIN COBRO</v>
+        <f t="shared" ref="I2:I3" si="0">CONCATENATE(A2,H2,B2,H2,TEXT(C2,"DD/MM/AAAA"),H2,D2,H2,E2,H2,F2,H2,G2)</f>
+        <v>2001000001|ACTIVO|01/01/2015|CCASTILLO|COBRANZAS|MOROSIDAD|3 MESES SIN COBRO</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1262,11 +1269,14 @@
       </c>
       <c r="I3" t="str">
         <f t="shared" si="0"/>
-        <v>2001000002|BAJA|01/2015|BLINARES|BANCO|A SOLICITUD DEL CLIENTE|NO DESEA EL SERVICIO</v>
+        <v>2001000002|BAJA|02/01/2015|BLINARES|BANCO|A SOLICITUD DEL CLIENTE|NO DESEA EL SERVICIO</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1275,7 +1285,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,8 +1335,8 @@
       <c r="D2" s="17">
         <v>10</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>36</v>
+      <c r="E2" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>19</v>
@@ -1347,7 +1357,7 @@
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>19</v>
@@ -1501,7 +1511,7 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
